--- a/cheat_sheet/my_cheatsheet.xlsx
+++ b/cheat_sheet/my_cheatsheet.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/我的雲端硬碟/0. codepool_python/python_tutorial/cheat_sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6635632D-D4FC-EF43-903E-33D3F46D3ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D411A03-845E-A34B-8B35-8237E8957538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{04BD9F13-8DC2-274D-9BB0-10DA52A0F654}"/>
+    <workbookView xWindow="-9260" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{04BD9F13-8DC2-274D-9BB0-10DA52A0F654}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
     <sheet name="list" sheetId="2" r:id="rId2"/>
+    <sheet name="numpy" sheetId="3" r:id="rId3"/>
+    <sheet name="pandas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +278,384 @@
   </si>
   <si>
     <t>整理自 python_tutorial: list 整理與實戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查] 找出特定 element 的 index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["a","b","c"]
+b_index = list1.index("b")
+print(b_index) # 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = c("a", "b", "c")
+b_index = which(list1 =="b")
+b_index # 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查] 確認 list 裡有沒有某個值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["a", "b", "c"]
+res = "c" in list1
+print(res) # True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = c("a", "b", "c")
+res = "c" %in% list1
+res # TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[改] 改list裡面的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["a", "b", "c"]
+list1[0] = "d" # 只改一個位子
+list1[1:] = ["e", "f"] # 改第2個位子到最後一個位子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = c("a", "b", "c")
+list1[1] = "d"
+list1[2:3] = c("e", "f")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mutable]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_list = [1, 2, 3]
+bad_new_list = old_list
+old_list.pop()
+#&gt; 3
+print(old_list)
+#&gt; [1, 2]
+print(bad_new_list)
+#&gt; [1, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[copy]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_list = [1, 2, 3]
+new_list = old_list.copy()
+new_list.pop()
+#&gt; 3
+print(new_list)
+#&gt; [1, 2]
+print(old_list)
+#&gt; [1, 2, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[method] sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["c", "b", "a"]
+# 由小到大
+list1.sort() # 不用存成新變數，已經sort完並存成list1
+list1 # ["a", "b", "c"]
+# 由大到小
+list1.sort(reverse = True)
+list1 # ["c", "b", "a"]
+# 自定義 function
+def myfunc(n):
+  return abs(n - 50)
+a = [100, 50, 65]
+a.sort(key = myfunc)
+print(a) # [50, 65, 100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = c("c", "b", "a")
+# 由小到大
+list1 = sort(list1)
+list1 # "a", "b", "c"
+# 由大到小
+list1 = sort(list1, decreasing = TRUE)
+list1 # "c" "b" "a"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[method] reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["c", "b", "a"]
+list1.reverse()
+print(list1) # ["a", "b", "c"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[method] count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["a", "b", "b", "c"]
+b_count = list1.count("b")
+print(b_count) # 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for] loop index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for] loop element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["a", "b", "c"]
+for i in range(len(list1)):
+  print(i)
+# 0 1 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = c("a","b","c")
+for(i in 1:length(list1)){
+  print(i)
+}
+# 1 2 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["a", "b", "c"]
+for i in list1:
+  print(i)
+# "a" "b" "c"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = c("a","b","c")
+for(i in list1){
+  print(i)
+}
+# "a" "b" "c"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list1 = ["a", "b", "c"]
+for i, j in enumerate(list1):
+  print(f"index is {i} and element is {j}")
+# index is 0 and element is a
+# index is 1 and element is b
+# index is 2 and element is c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for] loop both index &amp; element -&gt; enumerate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor = c('house', 'cuddy', 'chase', 'thirteen', 'wilson')
+# 目標：抓出每個element中的第一個字  
+first = c()
+for( doc in doctor){
+    first = c(first, substr(doc, 1, 1))
+}
+print(first)
+# 'h'  'c'  'c'  't'  'w'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor = ['house', 'cuddy', 'chase', 'thirteen', 'wilson']
+# 目標：抓出每個element中的第一個字  
+res = [doc[0] for doc in doctor] # 先看 for doc in doctor, 然後做的事情是 doc[0]，最後做完後，把結果用 [ ] 包起來，所以變list
+print(res)
+# ['h', 'c', 'c', 't', 'w']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for] list comprehension 基本款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for] list comprehension (nest for)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for] list comprehension (if)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for] list comprehension (if…else)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pairs_2 = [(num1,num2) for num1 in range(0,2) for num2 in range(6,8)]
+# 一樣從 iterate part 開始看，for num1 … in rang(6,8)，所以第一次會拿到 0 和 6，然後存成 (0,6)，最後把結果用 [] 包成 list
+print(pairs_2)
+# [(0, 6), (0, 7), (1, 6), (1, 7)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellowship = ['frodo', 'samwise', 'merry', 'aragorn', 'legolas', 'boromir', 'gimli']
+res = [member for member in fellowship if len(member)&gt;=7]
+print(res)
+# ['samwise', 'aragorn', 'legolas', 'boromir']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res =  [member if len(member) &gt;= 7 else '' for member in fellowship]
+# 寫法跟之前不太一樣了，現在是把 if else 寫前面
+print(res)
+# ['', 'samwise', '', 'aragorn', 'legolas', 'boromir', '']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head(df, n)</t>
+  </si>
+  <si>
+    <t>df.head(n)</t>
+  </si>
+  <si>
+    <t>dim(df)</t>
+  </si>
+  <si>
+    <t>df.shape</t>
+  </si>
+  <si>
+    <t>str(df)</t>
+  </si>
+  <si>
+    <t>df.info()</t>
+  </si>
+  <si>
+    <t>summary(df)</t>
+  </si>
+  <si>
+    <t>df.describe()</t>
+  </si>
+  <si>
+    <t>取colnames, rownames, values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colnames(df)</t>
+  </si>
+  <si>
+    <t>df.columns</t>
+  </si>
+  <si>
+    <t>rownames(df)</t>
+  </si>
+  <si>
+    <t>df.index</t>
+  </si>
+  <si>
+    <t>df.values</t>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select(df, col1)</t>
+  </si>
+  <si>
+    <t>df["col1"]是series, df[["col1"]]是df</t>
+  </si>
+  <si>
+    <t>select(df, col1, col2)</t>
+  </si>
+  <si>
+    <t>df[["col1", "col2"]]</t>
+  </si>
+  <si>
+    <t>select(df, col1:col3)</t>
+  </si>
+  <si>
+    <t>df.loc[:, "col1":"col3"]</t>
+  </si>
+  <si>
+    <t>df[,1:3]</t>
+  </si>
+  <si>
+    <t>df.iloc[:, 0:3] # from:stop</t>
+  </si>
+  <si>
+    <t>df.iloc[:, -3:]</t>
+  </si>
+  <si>
+    <t>select(df, where(is.numeric))</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(include = ["int","float"])</t>
+  </si>
+  <si>
+    <t>select(df, where(!is.numeric))</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(exclude = ["int", "float"]</t>
+  </si>
+  <si>
+    <t>select(df, -c(col1, col2))</t>
+  </si>
+  <si>
+    <t>df.drop(["col1", "col2"], axis =1)</t>
+  </si>
+  <si>
+    <t>select(df, -(col1:col3))</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>select(df, col3, everything())</t>
+  </si>
+  <si>
+    <t>select(df, col3, col5, everything())</t>
+  </si>
+  <si>
+    <t>n = ncol(df)
+df[, (n-3):n]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_list = df.columns.tolist()
+my_list.remove("col3")
+new_order = ["col3", *my_list]
+df[new_order]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_list = df.columns.tolist()
+front = ["col3", "col5"]
+end = [col for col in my_list if col not in front]
+new_order = [*front, *end]
+df[new_order]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front = ["col3", "col5"]
+df1 = df[front]
+df2 = df.drop(front, axis = 1)
+pd.concat([df1, df2], axis = 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select(df, col3, col5, everything())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +699,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +731,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,13 +1151,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF52BF-5628-1E4C-80CC-5D87BB1189F5}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -901,6 +1293,401 @@
         <v>45</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="48">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="48">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="48">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="128">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="144">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="240">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="48">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="48">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="80">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="80">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="96">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="144">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="80">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="80">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="64">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB615C7-914A-2E4D-B2A7-0D0CD553AAB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8673484-8B2A-B34F-BC16-7F912DE56487}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="59.6640625" customWidth="1"/>
+    <col min="4" max="5" width="58.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32">
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="80">
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="64">
+      <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cheat_sheet/my_cheatsheet.xlsx
+++ b/cheat_sheet/my_cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/我的雲端硬碟/0. codepool_python/python_tutorial/cheat_sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D411A03-845E-A34B-8B35-8237E8957538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36345BD0-DB2C-1F49-98BB-E21106C43A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9260" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{04BD9F13-8DC2-274D-9BB0-10DA52A0F654}"/>
   </bookViews>
@@ -1462,7 +1462,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
